--- a/data/data_sheets/processed_summary_data/Catchment_Stats.xlsx
+++ b/data/data_sheets/processed_summary_data/Catchment_Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clang\Documents\USU\DF_Areas\debris_flow_stats\data\data_sheets\processed_summary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9300951F-540D-4A48-BE7A-D7AD49DA9FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0870E0-B7A2-4565-860E-3243080EE076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{AD9FBDA0-C11E-4F82-832A-9900A0A1B26A}"/>
   </bookViews>
@@ -16,11 +16,23 @@
     <sheet name="Catchment_Stats" sheetId="10" r:id="rId1"/>
     <sheet name="GSD and Vol Est" sheetId="2" r:id="rId2"/>
     <sheet name="Vol_Summaries" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
-    <sheet name="River_Stats" sheetId="5" r:id="rId5"/>
-    <sheet name="CatchStatsWall" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId7"/>
+    <sheet name="River_Stats" sheetId="5" r:id="rId4"/>
+    <sheet name="CatchStatsWall" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Catchment_Stats!$AB$2:$AB$53</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Catchment_Stats!$B$2:$B$53</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Catchment_Stats!$L$2:$L$53</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Catchment_Stats!$B$2:$B$53</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Catchment_Stats!$C$2:$C$53</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Catchment_Stats!$B$2:$B$53</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Catchment_Stats!$I$2:$I$53</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Catchment_Stats!$AB$2:$AB$53</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Catchment_Stats!$AF$2:$AF$53</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Catchment_Stats!$B$2:$B$53</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Catchment_Stats!$B$2:$B$53</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="176">
   <si>
     <t>Site</t>
   </si>
@@ -392,15 +404,6 @@
     <t>EstD84_df</t>
   </si>
   <si>
-    <t>Fish_Creek_5_1</t>
-  </si>
-  <si>
-    <t>Fish_Creek_4_1</t>
-  </si>
-  <si>
-    <t>Fish_Creek_7_1</t>
-  </si>
-  <si>
     <t>Fish_Creek_5_2014</t>
   </si>
   <si>
@@ -431,16 +434,7 @@
     <t>Fish_Creek_7_2018</t>
   </si>
   <si>
-    <t>Shingle_Creek_2_2011</t>
-  </si>
-  <si>
-    <t>Shingle_Creek_2_2018</t>
-  </si>
-  <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>log_vol</t>
   </si>
   <si>
     <t>sqrt_S23</t>
@@ -455,15 +449,6 @@
     <t>S23_A</t>
   </si>
   <si>
-    <t>int_vol_Wall_WEST</t>
-  </si>
-  <si>
-    <t>lnG14</t>
-  </si>
-  <si>
-    <t>lnimg</t>
-  </si>
-  <si>
     <t>sqrts23</t>
   </si>
   <si>
@@ -474,21 +459,6 @@
   </si>
   <si>
     <t>logvolWall</t>
-  </si>
-  <si>
-    <t>int_img</t>
-  </si>
-  <si>
-    <t>int_Wall</t>
-  </si>
-  <si>
-    <t>int_G14</t>
-  </si>
-  <si>
-    <t>obs_vol2020</t>
-  </si>
-  <si>
-    <t>est_img_21</t>
   </si>
   <si>
     <t>Clay Springs 1A</t>
@@ -531,9 +501,6 @@
   </si>
   <si>
     <t>i15_5</t>
-  </si>
-  <si>
-    <t>g14_1yr</t>
   </si>
   <si>
     <t>Trail Mountain 3A</t>
@@ -606,6 +573,15 @@
   </si>
   <si>
     <t>p_Bmh</t>
+  </si>
+  <si>
+    <t>ln_Wall</t>
+  </si>
+  <si>
+    <t>ln_G14</t>
+  </si>
+  <si>
+    <t>ln_estint</t>
   </si>
 </sst>
 </file>
@@ -683,2285 +659,201 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Catchment_Stats!$B$2:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Catchment_Stats!$C$2:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0.267044</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0509379999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.228325</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.141357</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.433226</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.876428</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5307620000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0646089999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.5307620000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5307620000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.876428</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.0646089999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.717006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.87793200000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.717006</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>9.06</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="General">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.67723800000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.47866700000000001</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="General">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>1.84</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.3361080000000001</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="General">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="General">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>4.01</c:v>
-                </c:pt>
-                <c:pt idx="51" formatCode="General">
-                  <c:v>2.0699999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4635-49A1-AE6F-25C07C481E7E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="347779023"/>
-        <c:axId val="347777583"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="347779023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="347777583"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="347777583"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="347779023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{34360B8C-0D61-4861-8707-49B3CE118A57}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Catchment_Stats!$B$2:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Catchment_Stats!$I$2:$I$53</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>386.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>744.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>548.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>604.79</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>497.28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>534.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>637.95000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>292.24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>471.22</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>529.48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>352.2944</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>775.46</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>416.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>830.24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>769.16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>473.12</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>769.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>769.16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>830.24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>473.12</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>601.67999999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>394.29</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>601.67999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>674.79</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>360.02</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>510.37</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>828.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>501.09</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>384.33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>516.14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>568.59</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>737.69</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>568.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>325.83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>522.07519500000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>538.17773399999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>442.53</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>521.97</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>286.63</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>415.21</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>297.12</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>390.7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>575.77</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>403.52</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>461.14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>531.85</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>341.89</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>495.09</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>444.95</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>869.13</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>901</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1029</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-79A2-4D3C-AB2B-0D3470CC8D42}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1287579615"/>
-        <c:axId val="1287580095"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1287579615"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1287580095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1287580095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1287579615"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2DB69B9D-50FF-455D-B1C6-CD222E31A02E}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Catchment_Stats!$B$2:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Catchment_Stats!$L$2:$L$53</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>22.41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.03</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26.077649999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26.65</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24.66</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.77</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.42</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.77</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13.42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17.27</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>29.88</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>32.380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>28.93</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28.74</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23.44</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33.31</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.62</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>17.96</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>25.54</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>30.78</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>33.119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>33.28</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24.77</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>29.99</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>28.41</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>25.93</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29.61</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22.35</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24.87</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>26.462499619999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>22.48500061</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-447C-4E13-A0E4-B3D22F8AE390}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="709475647"/>
-        <c:axId val="709477567"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="709475647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="709477567"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="709477567"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="709475647"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F0415632-4758-49C0-8A75-3D482FF390E7}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>sqrtBmh</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
               </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
               <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Catchment_Stats!$B$2:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Catchment_Stats!$AF$2:$AF$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0.46075373031588146</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6093476939431082</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54772255750516607</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0099504938362078</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17320508075688773</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4038898364653411</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.47958315233127197</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.45825756949558399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0611088539824745</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65260324853619911</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1890828398391762</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4933184523068079</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5010809438534618</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.4933184523068079</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4933184523068079</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.1890828398391762</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5010809438534618</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.7075368224433698</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.89723854130325897</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7075368224433698</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.69282032302755092</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.2449489742783178</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.34641016151377546</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.8660254037844386</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.76811457478686085</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.22360679774997896</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.37416573867739417</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.6076809620810595</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.94868329805051377</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.42426406871192851</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.75498344352707492</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.65765340415753948</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0862780491200215</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.47958315233127197</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.26457513110645908</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.44721359549995793</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1532562594670797</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0862780491200215</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0609288383298854</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.50990195135927852</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.74161984870956632</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.28284271247461901</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.65574385243020006</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.6583123951776999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.37416573867739417</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C6D-4335-8052-F69E692D6D2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1257729247"/>
-        <c:axId val="1257730207"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1257729247"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1257730207"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1257730207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1257729247"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>sqrtBmh</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E8453EB7-A743-4341-B47F-5C9E61F84B3B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v/>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4673,7 +2565,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4684,7 +2576,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4700,14 +2592,14 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -4730,7 +2622,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4738,11 +2630,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -4767,42 +2659,59 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4811,10 +2720,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -4822,9 +2729,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -4837,10 +2747,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4859,41 +2769,38 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4942,12 +2849,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -4979,8 +2880,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4998,8 +2899,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5035,7 +2936,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -5063,7 +2964,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -5073,12 +2985,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -5094,7 +3003,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5110,7 +3019,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5124,27 +3033,26 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5158,18 +3066,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -5178,12 +3075,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5203,63 +3094,147 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3478B22-1BE0-14F5-F039-36793E0C6B05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3478B22-1BE0-14F5-F039-36793E0C6B05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="52915" y="440266"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>431799</xdr:colOff>
+      <xdr:colOff>444499</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4232</xdr:rowOff>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>499533</xdr:colOff>
+      <xdr:colOff>512233</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:rowOff>21166</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574D037F-7CB1-873C-48EC-7894DA347B57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574D037F-7CB1-873C-48EC-7894DA347B57}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4948766" y="372533"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5275,63 +3250,147 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD290CE-DBED-E902-B83A-84D24EB4CFF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD290CE-DBED-E902-B83A-84D24EB4CFF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="38100" y="3314700"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>563033</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156632</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4253999B-A882-0E3D-A6ED-135875A4717A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B15830D-F996-7D63-B5E0-A8AF4E594CF4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5181599" y="3238499"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5637,10 +3696,10 @@
   <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="27" topLeftCell="H28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="27" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomRight" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5679,16 +3738,16 @@
         <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L1" t="s">
         <v>68</v>
       </c>
       <c r="M1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
         <v>4</v>
@@ -5727,13 +3786,13 @@
         <v>14</v>
       </c>
       <c r="Z1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AA1" t="s">
         <v>15</v>
       </c>
       <c r="AB1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AC1" t="s">
         <v>46</v>
@@ -5742,10 +3801,10 @@
         <v>9</v>
       </c>
       <c r="AE1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AF1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AG1" t="s">
         <v>10</v>
@@ -5851,7 +3910,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6148,7 +4207,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6246,7 +4305,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6344,7 +4403,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7030,7 +5089,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7128,7 +5187,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7227,7 +5286,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7326,7 +5385,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7424,7 +5483,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7522,7 +5581,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7620,7 +5679,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7718,7 +5777,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7914,7 +5973,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -8012,7 +6071,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8110,7 +6169,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8208,7 +6267,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -8306,7 +6365,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8404,7 +6463,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8502,7 +6561,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -8600,7 +6659,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8698,7 +6757,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -9292,7 +7351,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -9387,7 +7446,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -9482,7 +7541,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -9577,7 +7636,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10065,7 +8124,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10162,7 +8221,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10259,7 +8318,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10356,7 +8415,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10451,7 +8510,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10546,7 +8605,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10642,7 +8701,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -10738,7 +8797,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -10842,9 +8901,9 @@
   <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="C27" sqref="C27"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -10931,7 +8990,7 @@
         <v>31</v>
       </c>
       <c r="U1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V1" t="s">
         <v>19</v>
@@ -10940,22 +8999,22 @@
         <v>112</v>
       </c>
       <c r="X1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Y1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="Z1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AA1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AB1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AC1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.5">
@@ -11033,7 +9092,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11273,7 +9332,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -11346,7 +9405,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -11419,7 +9478,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -12017,7 +10076,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V15)-(0.03*Catchment_Stats!G15)-(0.03*Catchment_Stats!H15)+(0.04*Catchment_Stats!P15)))</f>
@@ -12090,7 +10149,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V16)-(0.03*Catchment_Stats!G16)-(0.03*Catchment_Stats!H16)+(0.04*Catchment_Stats!P16)))</f>
@@ -12163,7 +10222,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V17)-(0.03*Catchment_Stats!G17)-(0.03*Catchment_Stats!H17)+(0.04*Catchment_Stats!P17)))</f>
@@ -12236,7 +10295,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B18" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V18)-(0.03*Catchment_Stats!G18)-(0.03*Catchment_Stats!H18)+(0.04*Catchment_Stats!P18)))</f>
@@ -12309,7 +10368,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V19)-(0.03*Catchment_Stats!G19)-(0.03*Catchment_Stats!H19)+(0.04*Catchment_Stats!P19)))</f>
@@ -12391,7 +10450,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V20)-(0.03*Catchment_Stats!G20)-(0.03*Catchment_Stats!H20)+(0.04*Catchment_Stats!P20)))</f>
@@ -12473,7 +10532,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B21" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V21)-(0.03*Catchment_Stats!G21)-(0.03*Catchment_Stats!H21)+(0.04*Catchment_Stats!P21)))</f>
@@ -12546,7 +10605,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V22)-(0.03*Catchment_Stats!G22)-(0.03*Catchment_Stats!H22)+(0.04*Catchment_Stats!P22)))</f>
@@ -12719,7 +10778,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V24)-(0.03*Catchment_Stats!G24)-(0.03*Catchment_Stats!H24)+(0.04*Catchment_Stats!P24)))</f>
@@ -12792,7 +10851,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V25)-(0.03*Catchment_Stats!G25)-(0.03*Catchment_Stats!H25)+(0.04*Catchment_Stats!P25)))</f>
@@ -12865,7 +10924,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V26)-(0.03*Catchment_Stats!G26)-(0.03*Catchment_Stats!H26)+(0.04*Catchment_Stats!P26)))</f>
@@ -12938,7 +10997,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V27)-(0.03*Catchment_Stats!G27)-(0.03*Catchment_Stats!H27)+(0.04*Catchment_Stats!P27)))</f>
@@ -13010,7 +11069,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V28)-(0.03*Catchment_Stats!G28)-(0.03*Catchment_Stats!H28)+(0.04*Catchment_Stats!P28)))</f>
@@ -13082,7 +11141,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V29)-(0.03*Catchment_Stats!G29)-(0.03*Catchment_Stats!H29)+(0.04*Catchment_Stats!P29)))</f>
@@ -13154,7 +11213,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V30)-(0.03*Catchment_Stats!G30)-(0.03*Catchment_Stats!H30)+(0.04*Catchment_Stats!P30)))</f>
@@ -13226,7 +11285,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V31)-(0.03*Catchment_Stats!G31)-(0.03*Catchment_Stats!H31)+(0.04*Catchment_Stats!P31)))</f>
@@ -13299,7 +11358,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V32)-(0.03*Catchment_Stats!G32)-(0.03*Catchment_Stats!H32)+(0.04*Catchment_Stats!P32)))</f>
@@ -13810,7 +11869,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2">
@@ -13882,7 +11941,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2">
@@ -13954,7 +12013,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2">
@@ -14024,7 +12083,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2">
@@ -14382,7 +12441,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B46" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V46)-(0.03*Catchment_Stats!G46)-(0.03*Catchment_Stats!H46)+(0.04*Catchment_Stats!P46)))</f>
@@ -14450,7 +12509,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B47" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V47)-(0.03*Catchment_Stats!G47)-(0.03*Catchment_Stats!H47)+(0.04*Catchment_Stats!P47)))</f>
@@ -14518,7 +12577,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B48" s="2">
         <f>-((-7.21)+(2.83*LN(Catchment_Stats!V48)-(0.03*Catchment_Stats!G48)-(0.03*Catchment_Stats!H48)+(0.04*Catchment_Stats!P48)))</f>
@@ -14586,7 +12645,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2">
@@ -14649,7 +12708,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2">
@@ -14712,7 +12771,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2">
@@ -14775,7 +12834,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2">
@@ -14859,7 +12918,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2">
@@ -14947,699 +13006,1392 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B92EB42-0808-4FF9-A4D8-9653523774C4}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.87890625" customWidth="1"/>
-    <col min="3" max="3" width="9.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.52734375" customWidth="1"/>
+    <col min="3" max="3" width="12.8203125" customWidth="1"/>
     <col min="5" max="5" width="10.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>1537.7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1076.1707188151934</v>
+      </c>
+      <c r="D2">
+        <v>3253.1338520230838</v>
+      </c>
+      <c r="E2">
+        <f>LN(C2)</f>
+        <v>6.9811643887453823</v>
+      </c>
+      <c r="F2">
+        <f>LN(D2)</f>
+        <v>8.087374072882616</v>
+      </c>
+      <c r="G2">
+        <f>LN(B2)</f>
+        <v>7.3380430725216472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>3267.823069</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5223.8703021524734</v>
+      </c>
+      <c r="D3">
+        <v>21612.316091012392</v>
+      </c>
+      <c r="E3">
+        <f>LN(C3)</f>
+        <v>8.5609938433418762</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F53" si="0">LN(D3)</f>
+        <v>9.9810186205747691</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G53" si="1">LN(B3)</f>
+        <v>8.0918793140613694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4">
+        <v>13846.1322</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2806.4774241225709</v>
+      </c>
+      <c r="D4">
+        <v>6010.7468040069416</v>
+      </c>
+      <c r="E4">
+        <f>LN(C4)</f>
+        <v>7.9396853902104274</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>8.7013042800436899</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>9.5357612090762558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>1128.265611</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3523.7511823019936</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6557.2758723553643</v>
+      </c>
+      <c r="E5">
+        <f>LN(C5)</f>
+        <v>8.167281377952067</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>8.7883305323319654</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>7.0284368750838002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6">
+        <v>5982.9740000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2312.929276802779</v>
+      </c>
+      <c r="D6">
+        <v>1527.6469341783368</v>
+      </c>
+      <c r="E6">
+        <f>LN(C6)</f>
+        <v>7.7462700853708801</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>7.3314838790076493</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8.6966730477345919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7">
+        <v>3861.25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4571.0013983518893</v>
+      </c>
+      <c r="D7">
+        <v>4605.5779174852587</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E24" si="2">LN(C7)</f>
+        <v>8.4274875842498531</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8.4350234386404601</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>8.2587462442327908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>2987.212</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7100.3744014878557</v>
+      </c>
+      <c r="D8">
+        <v>11860.87696788522</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>8.8679027942430153</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>9.3810006131473198</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>8.0020957899191867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>2403.855</v>
+      </c>
+      <c r="C9" s="2">
+        <v>932.47415752198458</v>
+      </c>
+      <c r="D9">
+        <v>1451.28861240789</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>6.8378414380208019</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>7.2802071389685059</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7.7848289776962396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="B2">
+      <c r="B10">
         <v>1779.422</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C10" s="2">
         <v>2904.4588967345721</v>
       </c>
-      <c r="D2">
-        <v>4681.7981440000003</v>
-      </c>
-      <c r="E2">
-        <v>650</v>
-      </c>
-      <c r="F2">
-        <v>1019.647</v>
-      </c>
-      <c r="G2">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>3864.5524305172885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="D10">
+        <v>5406.731427472705</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>7.9740023857519988</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>8.5954000168838203</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7.4840438714523438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B3">
+      <c r="B11">
         <v>5010.2189189999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C11" s="2">
         <v>6872.8067685547203</v>
       </c>
-      <c r="D3">
-        <v>6451.7868479999997</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3">
-        <v>4485.3495860000003</v>
-      </c>
-      <c r="G3">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>5180.4497666964007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4">
-        <v>1128.265611</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3523.7511823019936</v>
-      </c>
-      <c r="D4">
-        <v>7924.1148540000004</v>
-      </c>
-      <c r="G4">
-        <v>23</v>
-      </c>
-      <c r="H4">
-        <v>6557.2758723553643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5">
-        <v>13846.1322</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2806.4774241225709</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10428.437540000001</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>6010.7468040069416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>1832.172693</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5194.193076784175</v>
-      </c>
-      <c r="D6">
-        <v>7996.4395320000003</v>
-      </c>
-      <c r="E6">
-        <v>490</v>
-      </c>
-      <c r="F6">
-        <v>1368.9459999999999</v>
-      </c>
-      <c r="G6">
-        <v>29</v>
-      </c>
-      <c r="H6">
-        <v>8385.8766077038672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
-        <v>835.13890000000004</v>
-      </c>
-      <c r="C7" s="2">
-        <v>289.63903199999999</v>
-      </c>
-      <c r="D7">
-        <v>8441.6662429999997</v>
-      </c>
-      <c r="G7">
-        <v>29</v>
-      </c>
-      <c r="H7">
-        <v>8850.390802960017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
+      <c r="D11">
+        <v>7247.7475893093006</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>8.8353278561555584</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>8.8884460222418706</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8.519234889531436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
         <v>2396.061639</v>
       </c>
-      <c r="C8" s="2">
-        <v>676.91204100000004</v>
-      </c>
-      <c r="D8">
-        <v>4717.4944059999998</v>
-      </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
-      <c r="H8">
+      <c r="C12" s="2">
+        <v>11621.295741773869</v>
+      </c>
+      <c r="D12">
         <v>4041.5190472887348</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>9.3605945338082606</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>8.3043759020883741</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>7.7815816846974259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13">
         <v>2160</v>
       </c>
-      <c r="C9" s="2">
-        <v>4134.4916450000001</v>
-      </c>
-      <c r="D9">
-        <v>27056.162673999999</v>
-      </c>
-      <c r="G9">
-        <v>32</v>
-      </c>
-      <c r="H9">
+      <c r="C13" s="2">
+        <v>162497.59510618856</v>
+      </c>
+      <c r="D13">
         <v>24076.710369634577</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>11.998418481295886</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>10.089000277533708</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>7.6778635006782103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14">
         <v>770.93239740000001</v>
       </c>
-      <c r="C10" s="2">
-        <v>808.93989099999999</v>
-      </c>
-      <c r="D10">
-        <v>7082.2009269999999</v>
-      </c>
-      <c r="G10">
-        <v>32</v>
-      </c>
-      <c r="H10">
+      <c r="C14" s="2">
+        <v>16953.249450986281</v>
+      </c>
+      <c r="D14">
         <v>6456.0085429101118</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11">
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>9.7382148024577511</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>8.7727665332001656</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>6.6476006880070013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15">
         <v>1048.5999999999999</v>
       </c>
-      <c r="C11" s="2">
-        <v>1215.939613</v>
-      </c>
-      <c r="D11">
-        <v>31861.622016000001</v>
-      </c>
-      <c r="G11">
-        <v>32</v>
-      </c>
-      <c r="H11">
+      <c r="C15" s="2">
+        <v>3879.6530602138992</v>
+      </c>
+      <c r="D15">
         <v>29633.759807681599</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12">
-        <v>3380.1211170000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1509.4953700000001</v>
-      </c>
-      <c r="D12">
-        <v>30854.686300000001</v>
-      </c>
-      <c r="G12">
-        <v>32</v>
-      </c>
-      <c r="H12">
-        <v>30341.726135994217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13">
-        <v>2133</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1335.529747</v>
-      </c>
-      <c r="D13">
-        <v>1544.7920650000001</v>
-      </c>
-      <c r="G13">
-        <v>32</v>
-      </c>
-      <c r="H13">
-        <v>13992.804821852927</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14">
-        <v>2684.8419950000002</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1509.4953700000001</v>
-      </c>
-      <c r="D14">
-        <v>30854.686300000001</v>
-      </c>
-      <c r="G14">
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <v>30341.726135994217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15">
-        <v>3233.9</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1509.4953700000001</v>
-      </c>
-      <c r="D15">
-        <v>30854.686300000001</v>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>8.2635010111486942</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>10.296669524440617</v>
       </c>
       <c r="G15">
-        <v>32</v>
-      </c>
-      <c r="H15">
-        <v>30341.726135994217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+        <f t="shared" si="1"/>
+        <v>6.9552112201384322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>122</v>
       </c>
       <c r="B16">
+        <v>3380.1211170000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>29537.27335780951</v>
+      </c>
+      <c r="D16">
+        <v>30341.726135994217</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>10.293408248433462</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>10.320279144362427</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>8.1256668212670142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17">
+        <v>2133</v>
+      </c>
+      <c r="C17" s="2">
+        <v>17752.615294223338</v>
+      </c>
+      <c r="D17">
+        <v>13992.804821852927</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>9.7842881245696383</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>9.5462985351880807</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>7.6652847184713506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18">
+        <v>2684.8419950000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4289.3880172887411</v>
+      </c>
+      <c r="D18">
+        <v>30341.726135994217</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>8.3638993484334634</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>10.320279144362427</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>7.8953771579115815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19">
+        <v>3233.9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4289.3880172887411</v>
+      </c>
+      <c r="D19">
+        <v>30341.726135994217</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>8.3638993484334634</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>10.320279144362427</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>8.0814441181994816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20">
+        <v>2154.41</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3879.6530602138992</v>
+      </c>
+      <c r="D20">
+        <v>29633.759807681599</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>8.2635010111486942</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>10.296669524440617</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>7.6752721831501889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21">
         <v>779.74749999999995</v>
       </c>
-      <c r="C16" s="2">
-        <v>1215.939613</v>
-      </c>
-      <c r="D16">
-        <v>31861.622016000001</v>
-      </c>
-      <c r="G16">
-        <v>32</v>
-      </c>
-      <c r="H16">
-        <v>29633.759807681599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17">
-        <v>2154.41</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1335.529747</v>
-      </c>
-      <c r="D17">
-        <v>1544.7920650000001</v>
-      </c>
-      <c r="G17">
-        <v>32</v>
-      </c>
-      <c r="H17">
+      <c r="C21" s="2">
+        <v>17752.615294223338</v>
+      </c>
+      <c r="D21">
         <v>13992.804821852927</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>9.7842881245696383</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>9.5462985351880807</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>6.6589701493269535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22">
+        <v>364.23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45581.175195701246</v>
+      </c>
+      <c r="D22">
+        <v>22030.918446751737</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>10.727250085611246</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>10.000202129655985</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5.8977855362239939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23">
         <v>4431.6101269999999</v>
       </c>
-      <c r="C18" s="2">
-        <v>826.61380399999996</v>
-      </c>
-      <c r="D18">
-        <v>8993.9105249999993</v>
-      </c>
-      <c r="G18">
-        <v>32</v>
-      </c>
-      <c r="H18">
+      <c r="C23" s="2">
+        <v>14198.751299302141</v>
+      </c>
+      <c r="D23">
         <v>7551.3136380950018</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19">
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>9.5609093030538332</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>8.9294768189089151</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>8.3965182568230752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24">
         <v>222.67</v>
       </c>
-      <c r="C19" s="2">
-        <v>1390.8803800000001</v>
-      </c>
-      <c r="D19">
-        <v>2434.19994</v>
-      </c>
-      <c r="G19">
-        <v>32</v>
-      </c>
-      <c r="H19">
+      <c r="C24" s="2">
+        <v>45581.175195701246</v>
+      </c>
+      <c r="D24">
         <v>22030.918446751737</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20">
-        <v>364.23</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1390.8803800000001</v>
-      </c>
-      <c r="D20">
-        <v>2434.19994</v>
-      </c>
-      <c r="G20">
-        <v>32</v>
-      </c>
-      <c r="H20">
-        <v>22030.918446751737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>10.727250085611246</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>10.000202129655985</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>5.405690854816366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25">
+        <v>6079.6419999999998</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3379.9391994024077</v>
+      </c>
+      <c r="D25">
+        <v>13889.909210661723</v>
+      </c>
+      <c r="E25">
+        <f>LN(C25)</f>
+        <v>8.1256129999727893</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>9.5389178994175765</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>8.712701091647677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26">
+        <v>628.25789999999995</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1182.5517521140162</v>
+      </c>
+      <c r="D26">
+        <v>2643.8471502638231</v>
+      </c>
+      <c r="E26">
+        <f>LN(C26)</f>
+        <v>7.0754298844097105</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>7.8799903892641368</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>6.4429507509566593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27">
+        <v>831.92759999999998</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1452.9288863556069</v>
+      </c>
+      <c r="D27">
+        <v>5430.3365386113765</v>
+      </c>
+      <c r="E27">
+        <f>LN(C27)</f>
+        <v>7.2813367197404864</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>8.599756388652267</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>6.7237454178040466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28">
+        <v>2608.1460000000002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5021.990765866688</v>
+      </c>
+      <c r="D28">
+        <v>23483.041700748661</v>
+      </c>
+      <c r="E28">
+        <f>LN(C28)</f>
+        <v>8.5215817009796169</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>10.064033809876792</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>7.8663949030747249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29">
+        <v>1197.97</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3150.2942920099867</v>
+      </c>
+      <c r="D29">
+        <v>9379.4886376187751</v>
+      </c>
+      <c r="E29">
+        <f>LN(C29)</f>
+        <v>8.055251153490655</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>9.1462805242688727</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>7.0883837366256177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30">
+        <v>783.05219999999997</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1119.9141776584297</v>
+      </c>
+      <c r="D30">
+        <v>2687.2489442398169</v>
+      </c>
+      <c r="E30">
+        <f>LN(C30)</f>
+        <v>7.0210073342624471</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>7.8962732519755505</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>6.6631993604353461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31">
+        <v>500.7989</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1644.0740770393322</v>
+      </c>
+      <c r="D31">
+        <v>5441.1747530322009</v>
+      </c>
+      <c r="E31">
+        <f>LN(C31)</f>
+        <v>7.4049326336273555</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>8.6017502637853038</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>6.2162046232978536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32">
+        <v>1942.49</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1794.2699130072413</v>
+      </c>
+      <c r="D32">
+        <v>6609.4447959691652</v>
+      </c>
+      <c r="E32">
+        <f>LN(C32)</f>
+        <v>7.4923534844830906</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>8.7962549347596202</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>7.5717259342234033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <v>12165.661469999999</v>
+      </c>
+      <c r="C33" s="2">
+        <v>28277.841187087179</v>
+      </c>
+      <c r="D33">
+        <v>59775.524034898146</v>
+      </c>
+      <c r="E33">
+        <f>LN(C33)</f>
+        <v>10.249833780006416</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>10.998351559078531</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>9.4063726285852347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34">
+        <v>6708.3469999999998</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33021.480889553692</v>
+      </c>
+      <c r="D34">
+        <v>18757.79700823838</v>
+      </c>
+      <c r="E34">
+        <f>LN(C34)</f>
+        <v>10.404913564728723</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>9.8393647854002637</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>8.8111078508836602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35">
+        <v>788.02526190000003</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1868.6308108719456</v>
+      </c>
+      <c r="D35">
+        <v>3019.8354342034936</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E52" si="3">LN(C35)</f>
+        <v>7.5329612549695435</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>8.012957616898575</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>6.6695301475927558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36">
+        <v>835.13890000000004</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7077.61625613257</v>
+      </c>
+      <c r="D36">
+        <v>8532.9348496410039</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>8.8646924430090515</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>9.051688643401496</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>6.7275980583220658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37">
+        <v>1832.172693</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5194.193076784175</v>
+      </c>
+      <c r="D37">
+        <v>7500.3693806026986</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>8.5552965645745687</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>8.92270754905865</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>7.5132578055294257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38">
+        <v>2055.2339999999999</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8609.9269745828897</v>
+      </c>
+      <c r="D38">
+        <v>8126.8967169553944</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>9.0606711159204067</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>9.0029344220413918</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>7.6281449890609352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39">
+        <v>972.17129999999997</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4397.780607924311</v>
+      </c>
+      <c r="D39">
+        <v>5707.8655402967997</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>8.3888552853602718</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>8.6496004219592155</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>6.879532023500853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40">
+        <v>286.58300000000003</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2268.9916616499368</v>
+      </c>
+      <c r="D40">
+        <v>1858.0298592285624</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>7.727090809872224</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>7.5272719898735883</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>5.6580281975147733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41">
+        <v>851.65189999999996</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3743.8560661177571</v>
+      </c>
+      <c r="D41">
+        <v>4243.9922937226847</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>8.2278713929796936</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>8.3532596839270141</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>6.7471778752675213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42">
+        <v>3540.4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3535.8816528686034</v>
+      </c>
+      <c r="D42">
+        <v>5581.3302899668115</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>8.1707179539860597</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>8.6271824301816835</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>8.1719949940947227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A43" t="s">
         <v>75</v>
       </c>
-      <c r="B21">
+      <c r="B43">
         <v>4265.5871779999998</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C43" s="2">
         <v>4305.5026704332813</v>
       </c>
-      <c r="D21">
-        <v>10100.648324</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <v>7984.8431456285907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22">
-        <v>3540.4</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3535.8816528686034</v>
-      </c>
-      <c r="D22">
-        <v>7680.3873860000003</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-      <c r="H22">
-        <v>6000.597831449114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23">
-        <v>1837.2904719999999</v>
-      </c>
-      <c r="C23" s="2">
-        <v>6486.2760271676698</v>
-      </c>
-      <c r="D23">
-        <v>57958.519032999997</v>
-      </c>
-      <c r="G23">
-        <v>43</v>
-      </c>
-      <c r="H23">
-        <v>42960.885920710753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24">
-        <v>1537.7</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1252.0833230000001</v>
-      </c>
-      <c r="D24">
-        <v>6859.3135329999996</v>
-      </c>
-      <c r="G24">
-        <v>43</v>
-      </c>
-      <c r="H24">
-        <v>6466.5680306093973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25">
-        <v>1280.0961890000001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>2380.0000007960616</v>
-      </c>
-      <c r="D25">
-        <v>15731.490057000001</v>
-      </c>
-      <c r="E25">
-        <v>1700</v>
-      </c>
-      <c r="F25">
-        <v>811.83516010000005</v>
-      </c>
-      <c r="G25">
-        <v>28</v>
-      </c>
-      <c r="H25">
-        <v>12652.970521358502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26">
-        <v>380.5</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1828.8959955154974</v>
-      </c>
-      <c r="D26">
-        <v>2935.2312849999998</v>
-      </c>
-      <c r="G26">
-        <v>28</v>
-      </c>
-      <c r="H26">
-        <v>2048.4825915529591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27">
-        <v>12123.5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>13749.999998697625</v>
-      </c>
-      <c r="D27">
-        <v>24919.287361999999</v>
-      </c>
-      <c r="E27">
-        <v>11000</v>
-      </c>
-      <c r="F27">
-        <v>10540.6</v>
-      </c>
-      <c r="G27">
-        <v>26</v>
-      </c>
-      <c r="H27">
-        <v>33845.730652366736</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28">
-        <v>6708.3469999999998</v>
-      </c>
-      <c r="C28" s="2">
-        <v>511.898009</v>
-      </c>
-      <c r="D28">
-        <v>13995.416209000001</v>
-      </c>
-      <c r="G28">
-        <v>26</v>
-      </c>
-      <c r="H28">
-        <v>10620.924791925809</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29">
-        <v>788.02526190000003</v>
-      </c>
-      <c r="C29" s="2">
-        <v>832.00000014875434</v>
-      </c>
-      <c r="D29">
-        <v>3371.2810570000001</v>
-      </c>
-      <c r="E29">
-        <v>520</v>
-      </c>
-      <c r="F29">
-        <v>632.86889540000004</v>
-      </c>
-      <c r="G29">
-        <v>26</v>
-      </c>
-      <c r="H29">
-        <v>2801.4409942070638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
+      <c r="D43">
+        <v>943.10954517090795</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>8.367649174373696</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>6.8491824425577965</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>8.3583351240721449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>1280.0940000000001</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10092.534007181986</v>
+      </c>
+      <c r="D44">
+        <v>1606.7379229570506</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>9.2195512222712814</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>7.3819612677812927</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>7.1546887917172617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45">
+        <v>1186.126</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2200.0194345773812</v>
+      </c>
+      <c r="D45">
+        <v>389.37952981163858</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>7.6962214732061982</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>5.9645545230191876</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>7.0784478133750302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
         <v>149</v>
       </c>
-      <c r="B30">
+      <c r="B46">
+        <v>1693.2860000000001</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3841.3845584274022</v>
+      </c>
+      <c r="D46">
+        <v>683.13715757994567</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>8.2535881426853521</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>6.526695655778763</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>7.4344262987578267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47">
+        <v>1961.184</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6391.6414022307617</v>
+      </c>
+      <c r="D47">
+        <v>1099.7324571506101</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>8.762746384844661</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>7.0028222084313203</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>7.5813036514733527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48">
+        <v>1503.287231</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1894.0997085881595</v>
+      </c>
+      <c r="D48">
+        <v>303.22420743096541</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>7.546498916810279</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>5.7144724903930797</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>7.3154094766178037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49">
         <v>783.86649999999997</v>
       </c>
-      <c r="C30">
+      <c r="C49" s="2">
         <v>12696.684943548278</v>
       </c>
-      <c r="D30">
-        <v>5941.4485130322228</v>
-      </c>
-      <c r="G30">
-        <v>28</v>
-      </c>
-      <c r="H30">
-        <v>4996.7202772676474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31">
+      <c r="D49">
+        <v>634.50870657939515</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>9.4490962103058624</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>6.4528510090136386</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>6.6642387252387731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50">
         <v>945.36130000000003</v>
       </c>
-      <c r="C31">
+      <c r="C50" s="2">
         <v>8818.6742304710897</v>
       </c>
-      <c r="D31">
-        <v>7262.6915473862755</v>
-      </c>
-      <c r="G31">
-        <v>28</v>
-      </c>
-      <c r="H31">
-        <v>6136.7817113850833</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32">
+      <c r="D50">
+        <v>779.27944935518894</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>9.0846268236970094</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>6.6583697098553118</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>6.8515671824673285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51">
         <v>1150.6420000000001</v>
       </c>
-      <c r="C32">
-        <v>105596.15674912717</v>
-      </c>
-      <c r="D32">
-        <v>41788.682568905802</v>
-      </c>
-      <c r="G32">
-        <v>28</v>
-      </c>
-      <c r="H32">
-        <v>35610.426732715088</v>
+      <c r="C51" s="2">
+        <v>105258.51169080035</v>
+      </c>
+      <c r="D51">
+        <v>4521.9913369397254</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>11.564174619446231</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>8.4167077370775054</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>7.0480753264572327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52">
+        <v>4966.0839999999998</v>
+      </c>
+      <c r="C52" s="2">
+        <v>114208.98466076434</v>
+      </c>
+      <c r="D52">
+        <v>3840.8062559917817</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>11.645785247897127</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>8.253437586040592</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>8.5103868809472054</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53">
+        <v>1067.4010000000001</v>
+      </c>
+      <c r="C53" s="2">
+        <v>24185.782213644059</v>
+      </c>
+      <c r="D53">
+        <v>2169.6979734713532</v>
+      </c>
+      <c r="E53">
+        <f>LN(C53)</f>
+        <v>10.093520227659184</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>7.6823432541155947</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>6.9729820007553176</v>
       </c>
     </row>
   </sheetData>
@@ -15648,2245 +14400,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B9786-D091-4806-813E-5B4E40E77E9F}">
-  <dimension ref="A1:AC32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="16.64453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.99164078770432607</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.99164078770432607</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.3101407877043263</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-3.8882851160374341</v>
-      </c>
-      <c r="F2" s="2">
-        <v>-4.8447003116885297</v>
-      </c>
-      <c r="G2" s="2">
-        <v>-9.3561271154268955</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.50291297374126021</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.50291297374126021</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.20164775032636992</v>
-      </c>
-      <c r="K2" s="2">
-        <v>14.806933169047443</v>
-      </c>
-      <c r="L2" s="2">
-        <v>28.732177886084049</v>
-      </c>
-      <c r="M2" s="2">
-        <v>655.260429315632</v>
-      </c>
-      <c r="N2">
-        <v>0.53</v>
-      </c>
-      <c r="O2">
-        <v>6.88</v>
-      </c>
-      <c r="P2">
-        <v>56.88</v>
-      </c>
-      <c r="Q2">
-        <v>860</v>
-      </c>
-      <c r="R2">
-        <v>19.21</v>
-      </c>
-      <c r="S2">
-        <v>32.26</v>
-      </c>
-      <c r="T2">
-        <v>55.9</v>
-      </c>
-      <c r="U2" s="2">
-        <v>5.8465013736228109</v>
-      </c>
-      <c r="V2" s="2">
-        <v>346.02165978144853</v>
-      </c>
-      <c r="W2" s="2">
-        <v>29249.805515</v>
-      </c>
-      <c r="X2">
-        <v>1235.5992409999999</v>
-      </c>
-      <c r="Y2">
-        <v>3122.5527950000001</v>
-      </c>
-      <c r="Z2">
-        <v>7.1891677380000001</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>1324.9999994430727</v>
-      </c>
-      <c r="AB2">
-        <f>LN(X2)</f>
-        <v>7.1193113467677733</v>
-      </c>
-      <c r="AC2">
-        <f>LN(Y2)</f>
-        <v>8.0464061497831363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2.2967568540357188</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.2967568540357188</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.0099568540357184</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-4.2484476610523707</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-6.1681466833249656</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-9.1279463910489618</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.2035271070143041</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.2035271070143041</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3.1037401478621485E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>19.005640004407908</v>
-      </c>
-      <c r="L3" s="2">
-        <v>71.904650340271488</v>
-      </c>
-      <c r="M3" s="2">
-        <v>559.40479718159031</v>
-      </c>
-      <c r="N3">
-        <v>2.7</v>
-      </c>
-      <c r="O3">
-        <v>7.5</v>
-      </c>
-      <c r="P3">
-        <v>46.98</v>
-      </c>
-      <c r="Q3">
-        <v>628</v>
-      </c>
-      <c r="R3">
-        <v>10.33</v>
-      </c>
-      <c r="S3">
-        <v>19.3</v>
-      </c>
-      <c r="T3">
-        <v>36.28</v>
-      </c>
-      <c r="U3" s="2">
-        <v>6.2593823857519988</v>
-      </c>
-      <c r="V3" s="2">
-        <v>522.89589240546661</v>
-      </c>
-      <c r="W3" s="2">
-        <v>38284.542829999999</v>
-      </c>
-      <c r="X3">
-        <v>4681.7981440000003</v>
-      </c>
-      <c r="Y3">
-        <v>1779.422</v>
-      </c>
-      <c r="Z3">
-        <v>6.9469759919999996</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1039.9999998591645</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB32" si="0">LN(X3)</f>
-        <v>8.4514375339219683</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC32" si="1">LN(Y3)</f>
-        <v>7.4840438714523438</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.1806568540357185</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.1806568540357185</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.8749568540357195</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-4.10300766105237</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-6.1222709274055394</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-9.5573189127174203</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.22058251571158352</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.22058251571158352</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3.4081878491429511E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>17.183104999163678</v>
-      </c>
-      <c r="L4" s="2">
-        <v>69.654198469289938</v>
-      </c>
-      <c r="M4" s="2">
-        <v>753.31635605357417</v>
-      </c>
-      <c r="N4">
-        <v>3.43</v>
-      </c>
-      <c r="O4">
-        <v>20.56</v>
-      </c>
-      <c r="P4">
-        <v>60.11</v>
-      </c>
-      <c r="Q4">
-        <v>720</v>
-      </c>
-      <c r="R4">
-        <v>10.58</v>
-      </c>
-      <c r="S4">
-        <v>29.09</v>
-      </c>
-      <c r="T4">
-        <v>61.65</v>
-      </c>
-      <c r="U4" s="2">
-        <v>7.0749578561555602</v>
-      </c>
-      <c r="V4" s="2">
-        <v>1181.9936859968727</v>
-      </c>
-      <c r="W4" s="2">
-        <v>45196.413294999998</v>
-      </c>
-      <c r="X4">
-        <v>6451.7868479999997</v>
-      </c>
-      <c r="Y4">
-        <v>5010.2189189999999</v>
-      </c>
-      <c r="Z4">
-        <v>8.1886891239999997</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>3599.9999984008741</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>8.7721124021215751</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="1"/>
-        <v>8.519234889531436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7.9140787704326421E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7.9140787704326421E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.9673407877043259</v>
-      </c>
-      <c r="E5" s="2">
-        <v>-4.2382051160374337</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-4.9733547706709818</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-9.5462479305310062</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.94662237316975451</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.94662237316975451</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.25573150239314629</v>
-      </c>
-      <c r="K5" s="2">
-        <v>18.871188480346365</v>
-      </c>
-      <c r="L5" s="2">
-        <v>31.412070211334321</v>
-      </c>
-      <c r="M5" s="2">
-        <v>747.55778987380552</v>
-      </c>
-      <c r="U5" s="2">
-        <v>7.1979513779520676</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1336.6895857769705</v>
-      </c>
-      <c r="W5" s="2">
-        <v>43850.915567999997</v>
-      </c>
-      <c r="X5">
-        <v>7924.1148540000004</v>
-      </c>
-      <c r="Y5">
-        <v>1128.265611</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>8.9776659021606466</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="1"/>
-        <v>7.0284368750838002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.1456568540357193</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.1456568540357193</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3.2774568540357194</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-4.1544876610523698</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-6.441887820853947</v>
-      </c>
-      <c r="G6" s="2">
-        <v>-9.6102778458942222</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.45199162427907008</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.45199162427907008</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.10313558416691578</v>
-      </c>
-      <c r="K6" s="2">
-        <v>17.807310550668493</v>
-      </c>
-      <c r="L6" s="2">
-        <v>86.927960133816768</v>
-      </c>
-      <c r="M6" s="2">
-        <v>781.48253986816667</v>
-      </c>
-      <c r="U6" s="2">
-        <v>8.2200993743162023</v>
-      </c>
-      <c r="V6" s="2">
-        <v>3714.8715269870268</v>
-      </c>
-      <c r="W6" s="2">
-        <v>53864.819110999997</v>
-      </c>
-      <c r="X6" s="1">
-        <v>10428.437540000001</v>
-      </c>
-      <c r="Y6">
-        <v>13846.1322</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>9.2522917323626626</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="1"/>
-        <v>9.5357612090762558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.5294095771069802</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.7497095771069802</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>-3.229309892150118</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-5.5804330569863039</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-9.8266825623012863</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.34642705909816801</v>
-      </c>
-      <c r="I7" s="2">
-        <v>7.4344590687758491E-2</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>9.3777381329318246</v>
-      </c>
-      <c r="L7" s="2">
-        <v>47.845530883427998</v>
-      </c>
-      <c r="M7" s="2">
-        <v>907.95051666747906</v>
-      </c>
-      <c r="N7">
-        <v>0.05</v>
-      </c>
-      <c r="O7">
-        <v>32</v>
-      </c>
-      <c r="P7">
-        <v>93</v>
-      </c>
-      <c r="Q7">
-        <v>855</v>
-      </c>
-      <c r="R7">
-        <v>26.36</v>
-      </c>
-      <c r="S7">
-        <v>62</v>
-      </c>
-      <c r="T7">
-        <v>119.43</v>
-      </c>
-      <c r="U7" s="2">
-        <v>6.5605665645745699</v>
-      </c>
-      <c r="V7" s="2">
-        <v>706.67195649394455</v>
-      </c>
-      <c r="W7" s="2">
-        <v>355.57294200000001</v>
-      </c>
-      <c r="X7">
-        <v>7996.4395320000003</v>
-      </c>
-      <c r="Y7">
-        <v>1832.172693</v>
-      </c>
-      <c r="Z7">
-        <v>6.4945099839999996</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>661.50000029436035</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>8.9867516630940436</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="1"/>
-        <v>7.5132578055294257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.6860095771069803</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.1353095771069794</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>-3.229309892150118</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-5.6325543357598669</v>
-      </c>
-      <c r="G8" s="2">
-        <v>-9.8410295636116327</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.31079321573213792</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.11381465879336546</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <v>9.3777381329318246</v>
-      </c>
-      <c r="L8" s="2">
-        <v>49.605645633603139</v>
-      </c>
-      <c r="M8" s="2">
-        <v>917.02455396982668</v>
-      </c>
-      <c r="U8" s="2">
-        <v>6.86996244300905</v>
-      </c>
-      <c r="V8" s="2">
-        <v>962.91240104056624</v>
-      </c>
-      <c r="W8" s="2">
-        <v>289.63903199999999</v>
-      </c>
-      <c r="X8">
-        <v>8441.6662429999997</v>
-      </c>
-      <c r="Y8">
-        <v>835.13890000000004</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>9.0409349902612117</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="1"/>
-        <v>6.7275980583220658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1.4157095771069796</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3.2217095771069801</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>-3.229309892150118</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-5.5411918669965416</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-9.8631098878517793</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.37483330883602095</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.1071987625475517</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <v>9.3777381329318246</v>
-      </c>
-      <c r="L9" s="2">
-        <v>46.561703204841308</v>
-      </c>
-      <c r="M9" s="2">
-        <v>931.16718001433549</v>
-      </c>
-      <c r="U9" s="2">
-        <v>9.0868404116688133</v>
-      </c>
-      <c r="V9" s="2">
-        <v>8838.2167632528508</v>
-      </c>
-      <c r="W9" s="2">
-        <v>958.35700299999996</v>
-      </c>
-      <c r="X9">
-        <v>2934.1124799999998</v>
-      </c>
-      <c r="Y9">
-        <v>3511.0569999999998</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>7.9841602947097421</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="1"/>
-        <v>8.1636724107276226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.7478902649932211</v>
-      </c>
-      <c r="C10" s="2">
-        <v>-0.51830973500677935</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>-2.5333050847907881</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-5.0894025241985226</v>
-      </c>
-      <c r="G10" s="2">
-        <v>-9.4151139624632929</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.29774466606158428</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.4322650685452276</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>5.7887435766676516</v>
-      </c>
-      <c r="L10" s="2">
-        <v>34.043143706953202</v>
-      </c>
-      <c r="M10" s="2">
-        <v>682.60641910977745</v>
-      </c>
-      <c r="N10">
-        <v>2.21</v>
-      </c>
-      <c r="O10">
-        <v>11.29</v>
-      </c>
-      <c r="P10">
-        <v>82.8</v>
-      </c>
-      <c r="U10" s="2">
-        <v>7.1741945338082589</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1305.3082957476222</v>
-      </c>
-      <c r="W10" s="2">
-        <v>676.91204100000004</v>
-      </c>
-      <c r="X10">
-        <v>4717.4944059999998</v>
-      </c>
-      <c r="Y10">
-        <v>2396.061639</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>8.4590330914444394</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>7.7815816846974259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.74339026499322</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-0.47600973500677934</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>-2.5333050847907881</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-5.1022237366203838</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-9.4713342642581999</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.29867480974966087</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1.3908814238350178</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>5.7887435766676516</v>
-      </c>
-      <c r="L11" s="2">
-        <v>34.347026413915714</v>
-      </c>
-      <c r="M11" s="2">
-        <v>709.73136588479201</v>
-      </c>
-      <c r="N11">
-        <v>1.21</v>
-      </c>
-      <c r="O11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P11">
-        <v>12.87</v>
-      </c>
-      <c r="U11" s="2">
-        <v>9.8120184812958851</v>
-      </c>
-      <c r="V11" s="2">
-        <v>18251.790819563983</v>
-      </c>
-      <c r="W11" s="2">
-        <v>4134.4916450000001</v>
-      </c>
-      <c r="X11">
-        <v>27056.162673999999</v>
-      </c>
-      <c r="Y11">
-        <v>1917.6436180000001</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
-        <v>10.205670083612894</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="1"/>
-        <v>7.5588524290024948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.8288902649932206</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-0.75920973500678013</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>-2.5333050847907881</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-5.0140237676921791</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-9.4097729538467867</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.28148877962882957</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.6925439562328897</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>5.7887435766676516</v>
-      </c>
-      <c r="L12" s="2">
-        <v>32.310143175724377</v>
-      </c>
-      <c r="M12" s="2">
-        <v>680.08406491772632</v>
-      </c>
-      <c r="N12">
-        <v>0.76</v>
-      </c>
-      <c r="O12">
-        <v>5.76</v>
-      </c>
-      <c r="P12">
-        <v>21.8</v>
-      </c>
-      <c r="U12" s="2">
-        <v>7.5518148024577494</v>
-      </c>
-      <c r="V12" s="2">
-        <v>1904.1953358699589</v>
-      </c>
-      <c r="W12" s="2">
-        <v>808.93989099999999</v>
-      </c>
-      <c r="X12">
-        <v>7082.2009269999999</v>
-      </c>
-      <c r="Y12">
-        <v>770.93239740000001</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
-        <v>8.8653400037746106</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="1"/>
-        <v>6.6476006880070013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="2">
-        <v>-0.15783533552544604</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-2.513735335525447</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>-4.0466282482561029</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-5.7925689645658043</v>
-      </c>
-      <c r="G13" s="2">
-        <v>-9.353797228111107</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1.1156093409541077</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5.7107527566794269</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
-        <v>16.524568086826246</v>
-      </c>
-      <c r="L13" s="2">
-        <v>55.424178777934742</v>
-      </c>
-      <c r="M13" s="2">
-        <v>654.20309021832759</v>
-      </c>
-      <c r="N13">
-        <v>1.96</v>
-      </c>
-      <c r="O13">
-        <v>3.98</v>
-      </c>
-      <c r="P13">
-        <v>36.1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>6.5189410111486943</v>
-      </c>
-      <c r="V13" s="2">
-        <v>677.86015875872363</v>
-      </c>
-      <c r="W13" s="2">
-        <v>1215.939613</v>
-      </c>
-      <c r="X13">
-        <v>31861.622016000001</v>
-      </c>
-      <c r="Y13">
-        <v>1127.3635180000001</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="0"/>
-        <v>10.369157492902595</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="1"/>
-        <v>7.0276370157128634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7.9583790585367353E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-2.4158162094146336</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>-5.2868901121613305</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-5.5550687465831139</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-9.2181272712014319</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.94633174835026868</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5.3360194261562661</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2">
-        <v>39.037146008950366</v>
-      </c>
-      <c r="L14" s="2">
-        <v>47.011718262887527</v>
-      </c>
-      <c r="M14" s="2">
-        <v>595.48763595870571</v>
-      </c>
-      <c r="N14">
-        <v>2.81</v>
-      </c>
-      <c r="O14">
-        <v>13</v>
-      </c>
-      <c r="P14">
-        <v>49.32</v>
-      </c>
-      <c r="U14" s="2">
-        <v>8.6614982484334604</v>
-      </c>
-      <c r="V14" s="2">
-        <v>5776.1823388419789</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1509.4953700000001</v>
-      </c>
-      <c r="X14">
-        <v>30854.686300000001</v>
-      </c>
-      <c r="Y14">
-        <v>3380.1211170000001</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="0"/>
-        <v>10.337043923793745</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="1"/>
-        <v>8.1256668212670142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-0.48205386321572519</v>
-      </c>
-      <c r="C15" s="2">
-        <v>-1.9772538632157248</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>-1.3708140837286678</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-4.253516300916842</v>
-      </c>
-      <c r="G15" s="2">
-        <v>-9.1110581394758849</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1.3967205769749693</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3.9373120720822432</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
-        <v>2.5861113818843715</v>
-      </c>
-      <c r="L15" s="2">
-        <v>19.07252875863762</v>
-      </c>
-      <c r="M15" s="2">
-        <v>552.89469903438908</v>
-      </c>
-      <c r="N15">
-        <v>1.18</v>
-      </c>
-      <c r="O15">
-        <v>3.97</v>
-      </c>
-      <c r="P15">
-        <v>13</v>
-      </c>
-      <c r="U15" s="2">
-        <v>8.4598481245696391</v>
-      </c>
-      <c r="V15" s="2">
-        <v>4721.3408875008226</v>
-      </c>
-      <c r="W15" s="2">
-        <v>1335.529747</v>
-      </c>
-      <c r="X15">
-        <v>1544.7920650000001</v>
-      </c>
-      <c r="Y15">
-        <v>1924.9475480000001</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
-        <v>7.3426445945138523</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="1"/>
-        <v>7.5626539985584493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7.9583790585367353E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>-2.4158162094146336</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="U16" s="2">
-        <v>6.7319893484334621</v>
-      </c>
-      <c r="V16" s="2">
-        <v>838.81430116341164</v>
-      </c>
-      <c r="W16" s="2">
-        <v>1509.4953700000001</v>
-      </c>
-      <c r="X16">
-        <v>30854.686300000001</v>
-      </c>
-      <c r="Y16">
-        <v>2684.8419950000002</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="0"/>
-        <v>10.337043923793745</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="1"/>
-        <v>7.8953771579115815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="2">
-        <v>7.9490412464469529E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-2.4159095875355314</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="U17" s="2">
-        <v>6.7319893484334621</v>
-      </c>
-      <c r="V17" s="2">
-        <v>838.81430116341164</v>
-      </c>
-      <c r="W17" s="2">
-        <v>1509.4953700000001</v>
-      </c>
-      <c r="X17">
-        <v>30854.686300000001</v>
-      </c>
-      <c r="Y17">
-        <v>4204.2514950000004</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="0"/>
-        <v>10.337043923793745</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="1"/>
-        <v>8.3438515529953516</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.68685361241180498</v>
-      </c>
-      <c r="C18" s="2">
-        <v>-1.6690463875881951</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2">
-        <v>6.5189410111486943</v>
-      </c>
-      <c r="V18" s="2">
-        <v>677.86015875872363</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1215.939613</v>
-      </c>
-      <c r="X18">
-        <v>31861.622016000001</v>
-      </c>
-      <c r="Y18">
-        <v>935.49879999999996</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="0"/>
-        <v>10.369157492902595</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="1"/>
-        <v>6.8410798629768168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="2">
-        <v>-0.49049190209162141</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-1.9771272281642132</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
-        <v>1</v>
-      </c>
-      <c r="U19" s="2">
-        <v>8.4598481245696391</v>
-      </c>
-      <c r="V19" s="2">
-        <v>4721.3408875008226</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1335.529747</v>
-      </c>
-      <c r="X19">
-        <v>1544.7920650000001</v>
-      </c>
-      <c r="Y19">
-        <v>1981.6820150000001</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="0"/>
-        <v>7.3426445945138523</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="1"/>
-        <v>7.5917012655907827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.1631340338230451E-2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-2.7112686596617701</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>-4.4661302232523923</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-6.144127608116901</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-9.3529037372186892</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.97831389951040004</v>
-      </c>
-      <c r="I20" s="2">
-        <v>6.5487065005908347</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
-        <v>22.100905173301694</v>
-      </c>
-      <c r="L20" s="2">
-        <v>70.717463198882612</v>
-      </c>
-      <c r="M20" s="2">
-        <v>653.79806290807323</v>
-      </c>
-      <c r="U20" s="2">
-        <v>7.3674593030538347</v>
-      </c>
-      <c r="V20" s="2">
-        <v>1583.6052066032553</v>
-      </c>
-      <c r="W20" s="2">
-        <v>826.61380399999996</v>
-      </c>
-      <c r="X20">
-        <v>8993.9105249999993</v>
-      </c>
-      <c r="Y20">
-        <v>4431.6101269999999</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="0"/>
-        <v>9.1043030189823018</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="1"/>
-        <v>8.3965182568230752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="2">
-        <v>-0.98308391695743413</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-3.0026839169574329</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>-4.6640611953498929</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-6.2401565124632139</v>
-      </c>
-      <c r="G21" s="2">
-        <v>-9.2789064685187963</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.9766571223325982</v>
-      </c>
-      <c r="I21" s="2">
-        <v>8.0145355846490514</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2">
-        <v>25.35081530361084</v>
-      </c>
-      <c r="L21" s="2">
-        <v>75.584653774796863</v>
-      </c>
-      <c r="M21" s="2">
-        <v>621.11027552107373</v>
-      </c>
-      <c r="R21">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="S21">
-        <v>45</v>
-      </c>
-      <c r="T21">
-        <v>140.26</v>
-      </c>
-      <c r="U21" s="2">
-        <v>8.720040085611247</v>
-      </c>
-      <c r="V21" s="2">
-        <v>6124.4245844952147</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1390.8803800000001</v>
-      </c>
-      <c r="X21">
-        <v>2434.19994</v>
-      </c>
-      <c r="Y21">
-        <v>276.01327670000001</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="0"/>
-        <v>7.7973734147917009</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="1"/>
-        <v>5.6204489685456975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="2">
-        <v>-0.98308391695743413</v>
-      </c>
-      <c r="C22" s="2">
-        <v>-3.0026839169574329</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>-4.6640611953498929</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-6.2401565124632139</v>
-      </c>
-      <c r="G22" s="2">
-        <v>-9.2789064685187963</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>8.0145355846490514</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2">
-        <v>25.35081530361084</v>
-      </c>
-      <c r="L22" s="2">
-        <v>75.584653774796863</v>
-      </c>
-      <c r="M22" s="2">
-        <v>621.11027552107373</v>
-      </c>
-      <c r="N22">
-        <v>5.8</v>
-      </c>
-      <c r="O22">
-        <v>11.37</v>
-      </c>
-      <c r="P22">
-        <v>32.1</v>
-      </c>
-      <c r="U22" s="2">
-        <v>8.720040085611247</v>
-      </c>
-      <c r="V22" s="2">
-        <v>6124.4245844952147</v>
-      </c>
-      <c r="W22" s="2">
-        <v>1390.8803800000001</v>
-      </c>
-      <c r="X22">
-        <v>2434.19994</v>
-      </c>
-      <c r="Y22">
-        <v>412.25671149999999</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="0"/>
-        <v>7.7973734147917009</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="1"/>
-        <v>6.0216462414769873</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2">
-        <v>2.4190944575922817</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <v>-3.8766803125855231</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-5.8966244882060188</v>
-      </c>
-      <c r="G23" s="2">
-        <v>-9.569187338302477</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>0.18698026387218802</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2">
-        <v>14.68830891956568</v>
-      </c>
-      <c r="L23" s="2">
-        <v>59.569289846212037</v>
-      </c>
-      <c r="M23" s="2">
-        <v>759.53898823439374</v>
-      </c>
-      <c r="U23" s="2">
-        <v>6.9584591743736963</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1052.0113417531334</v>
-      </c>
-      <c r="W23" s="2">
-        <v>853.32344399999999</v>
-      </c>
-      <c r="X23">
-        <v>10100.648324</v>
-      </c>
-      <c r="Y23">
-        <v>4265.5871779999998</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="0"/>
-        <v>9.2203548912642788</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="1"/>
-        <v>8.3583351240721449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2">
-        <v>2.0969204862603776</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
-        <v>-4.3115418484365211</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-5.8540123238178428</v>
-      </c>
-      <c r="G24" s="2">
-        <v>-9.5199081780485031</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>0.23376403676872465</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2">
-        <v>19.855248672489353</v>
-      </c>
-      <c r="L24" s="2">
-        <v>57.835588717467942</v>
-      </c>
-      <c r="M24" s="2">
-        <v>734.03351119893398</v>
-      </c>
-      <c r="U24" s="2">
-        <v>6.8796079539860608</v>
-      </c>
-      <c r="V24" s="2">
-        <v>972.24512024108185</v>
-      </c>
-      <c r="W24" s="2">
-        <v>723.43523700000003</v>
-      </c>
-      <c r="X24">
-        <v>7680.3873860000003</v>
-      </c>
-      <c r="Y24">
-        <v>3540.4</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="0"/>
-        <v>8.9464252657550354</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="1"/>
-        <v>8.1719949940947227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2">
-        <v>-1.6398827595408738</v>
-      </c>
-      <c r="C25" s="2">
-        <v>-1.6398827595408738</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
-        <v>-3.285499444757181</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-5.2647062928054424</v>
-      </c>
-      <c r="G25" s="2">
-        <v>-9.406095298209177</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>9.7501764634942205</v>
-      </c>
-      <c r="L25" s="2">
-        <v>38.441489635777529</v>
-      </c>
-      <c r="M25" s="2">
-        <v>678.35266932434513</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>12.4</v>
-      </c>
-      <c r="P25">
-        <v>54.62</v>
-      </c>
-      <c r="Q25">
-        <v>527</v>
-      </c>
-      <c r="R25">
-        <v>11.58</v>
-      </c>
-      <c r="S25">
-        <v>30.29</v>
-      </c>
-      <c r="T25">
-        <v>51.53</v>
-      </c>
-      <c r="U25" s="2">
-        <v>6.3542538433418763</v>
-      </c>
-      <c r="V25" s="2">
-        <v>574.93319034473348</v>
-      </c>
-      <c r="W25" s="2">
-        <v>7349.196758</v>
-      </c>
-      <c r="X25">
-        <v>57958.519032999997</v>
-      </c>
-      <c r="Y25">
-        <v>1837.2904719999999</v>
-      </c>
-      <c r="Z25">
-        <v>6.43775165</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>625.00000016474905</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="0"/>
-        <v>10.967482844572631</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="1"/>
-        <v>7.5160471957416712</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="2">
-        <v>-2.32573151796191</v>
-      </c>
-      <c r="C26" s="2">
-        <v>-2.32573151796191</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>-4.5117997441750646</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-6.5209446099985282</v>
-      </c>
-      <c r="G26" s="2">
-        <v>-9.5332601029592929</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>22.811700410420805</v>
-      </c>
-      <c r="L26" s="2">
-        <v>91.82426024994551</v>
-      </c>
-      <c r="M26" s="2">
-        <v>740.85826518098895</v>
-      </c>
-      <c r="U26" s="2">
-        <v>5.181104388745382</v>
-      </c>
-      <c r="V26" s="2">
-        <v>177.87915028757092</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1252.0833230000001</v>
-      </c>
-      <c r="X26">
-        <v>6859.3135329999996</v>
-      </c>
-      <c r="Y26">
-        <v>1537.7</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="0"/>
-        <v>8.8333626476369851</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="1"/>
-        <v>7.3380430725216472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.26653122643479232</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.26653122643479232</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>-2.2169187509085835</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-4.7735768087652843</v>
-      </c>
-      <c r="G27" s="2">
-        <v>-9.9072088538856811</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>4.6488399749148623</v>
-      </c>
-      <c r="L27" s="2">
-        <v>27.35008637431439</v>
-      </c>
-      <c r="M27" s="2">
-        <v>960.06908351726781</v>
-      </c>
-      <c r="N27">
-        <v>0.02</v>
-      </c>
-      <c r="O27">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="P27">
-        <v>47.35</v>
-      </c>
-      <c r="Q27">
-        <v>790</v>
-      </c>
-      <c r="R27">
-        <v>2</v>
-      </c>
-      <c r="S27">
-        <v>4.3</v>
-      </c>
-      <c r="T27">
-        <v>50.2</v>
-      </c>
-      <c r="U27" s="2">
-        <v>7.2373012222712818</v>
-      </c>
-      <c r="V27" s="2">
-        <v>1390.3366934149747</v>
-      </c>
-      <c r="W27" s="2">
-        <v>124019.94869200001</v>
-      </c>
-      <c r="X27">
-        <v>15731.490057000001</v>
-      </c>
-      <c r="Y27">
-        <v>1280.0961890000001</v>
-      </c>
-      <c r="Z27">
-        <v>7.774855767</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>2380.0000007960616</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="0"/>
-        <v>9.6634197186480062</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="1"/>
-        <v>7.1546905017464688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.8404312264347924</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.8404312264347924</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>-2.2169187509085835</v>
-      </c>
-      <c r="F28" s="2">
-        <v>-4.9593592333812859</v>
-      </c>
-      <c r="G28" s="2">
-        <v>-9.9163125103637739</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>4.6488399749148623</v>
-      </c>
-      <c r="L28" s="2">
-        <v>31.10882258786366</v>
-      </c>
-      <c r="M28" s="2">
-        <v>966.14630877778825</v>
-      </c>
-      <c r="U28" s="2">
-        <v>6.7147045714085953</v>
-      </c>
-      <c r="V28" s="2">
-        <v>824.44016771873078</v>
-      </c>
-      <c r="W28" s="2">
-        <v>91318.553729000007</v>
-      </c>
-      <c r="X28">
-        <v>12255.441226999999</v>
-      </c>
-      <c r="Y28">
-        <v>1658.900024</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="0"/>
-        <v>9.4137252991492595</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="1"/>
-        <v>7.4139100255656478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.98743122643479264</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.98743122643479264</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>-2.2169187509085835</v>
-      </c>
-      <c r="F29" s="2">
-        <v>-5.003133862521306</v>
-      </c>
-      <c r="G29" s="2">
-        <v>-9.9304826155445092</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
-        <v>4.6488399749148623</v>
-      </c>
-      <c r="L29" s="2">
-        <v>32.06717968787455</v>
-      </c>
-      <c r="M29" s="2">
-        <v>975.68231545000924</v>
-      </c>
-      <c r="U29" s="2">
-        <v>5.5292177826491073</v>
-      </c>
-      <c r="V29" s="2">
-        <v>251.946756800168</v>
-      </c>
-      <c r="W29" s="2">
-        <v>14281.301416</v>
-      </c>
-      <c r="X29">
-        <v>2935.2312849999998</v>
-      </c>
-      <c r="Y29">
-        <v>380.5</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="0"/>
-        <v>7.9845415315424608</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="1"/>
-        <v>5.9414861773017407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2">
-        <v>-2.2648293972730391</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-4.4860451571764859</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-5.7256763779513999</v>
-      </c>
-      <c r="G30" s="2">
-        <v>-9.6653061752445275</v>
-      </c>
-      <c r="J30" s="2">
-        <v>4.8058125409785379</v>
-      </c>
-      <c r="K30" s="2">
-        <v>22.40809432234315</v>
-      </c>
-      <c r="L30" s="2">
-        <v>52.91307825866096</v>
-      </c>
-      <c r="M30" s="2">
-        <v>811.86552231062944</v>
-      </c>
-      <c r="N30">
-        <v>6.3</v>
-      </c>
-      <c r="O30">
-        <v>23.09</v>
-      </c>
-      <c r="P30">
-        <v>58.11</v>
-      </c>
-      <c r="Q30">
-        <v>1310</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>21.34</v>
-      </c>
-      <c r="T30">
-        <v>52.27</v>
-      </c>
-      <c r="U30" s="2">
-        <v>9.2688337800064176</v>
-      </c>
-      <c r="V30" s="2">
-        <v>10602.379966147439</v>
-      </c>
-      <c r="W30" s="2">
-        <v>634.77811899999995</v>
-      </c>
-      <c r="X30">
-        <v>24919.287361999999</v>
-      </c>
-      <c r="Y30">
-        <v>12123.5</v>
-      </c>
-      <c r="Z30">
-        <v>9.5287941029999992</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>13749.999998697625</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="0"/>
-        <v>10.123397375461989</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="1"/>
-        <v>9.4029009968125994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2">
-        <v>0.32776315255001265</v>
-      </c>
-      <c r="E31" s="2">
-        <v>-4.167839686048227</v>
-      </c>
-      <c r="F31" s="2">
-        <v>-5.5558215376705258</v>
-      </c>
-      <c r="G31" s="2">
-        <v>-9.6096084053522546</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.79677480968229486</v>
-      </c>
-      <c r="K31" s="2">
-        <v>17.97287714530227</v>
-      </c>
-      <c r="L31" s="2">
-        <v>47.036254613160935</v>
-      </c>
-      <c r="M31" s="2">
-        <v>781.12000766088295</v>
-      </c>
-      <c r="U31" s="2">
-        <v>9.2468535647287204</v>
-      </c>
-      <c r="V31" s="2">
-        <v>10371.87987291941</v>
-      </c>
-      <c r="W31" s="2">
-        <v>511.898009</v>
-      </c>
-      <c r="X31">
-        <v>13995.416209000001</v>
-      </c>
-      <c r="Y31">
-        <v>6708.3469999999998</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="0"/>
-        <v>9.5464851413429894</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="1"/>
-        <v>8.8111078508836602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="2">
-        <v>-2.3835710861059853</v>
-      </c>
-      <c r="D32" s="2">
-        <v>-2.1975710861059836</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-4.3140498129837468</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-5.4827026887705355</v>
-      </c>
-      <c r="G32" s="2">
-        <v>-9.5206458673974375</v>
-      </c>
-      <c r="J32" s="2">
-        <v>4.5869129215461095</v>
-      </c>
-      <c r="K32" s="2">
-        <v>19.889794079750281</v>
-      </c>
-      <c r="L32" s="2">
-        <v>44.71180908885848</v>
-      </c>
-      <c r="M32" s="2">
-        <v>734.4089304133978</v>
-      </c>
-      <c r="N32">
-        <v>1.44</v>
-      </c>
-      <c r="O32">
-        <v>13.05</v>
-      </c>
-      <c r="P32">
-        <v>33.049999999999997</v>
-      </c>
-      <c r="Q32">
-        <v>724</v>
-      </c>
-      <c r="R32">
-        <v>9.74</v>
-      </c>
-      <c r="S32">
-        <v>18.2</v>
-      </c>
-      <c r="T32">
-        <v>30.31</v>
-      </c>
-      <c r="U32" s="2">
-        <v>6.516411254969543</v>
-      </c>
-      <c r="V32" s="2">
-        <v>676.14750504502842</v>
-      </c>
-      <c r="W32" s="2">
-        <v>293.48203799999999</v>
-      </c>
-      <c r="X32">
-        <v>3371.2810570000001</v>
-      </c>
-      <c r="Y32">
-        <v>788.02526190000003</v>
-      </c>
-      <c r="Z32">
-        <v>6.7238324409999999</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>832.00000014875434</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="0"/>
-        <v>8.1230480867214805</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="1"/>
-        <v>6.6695301475927558</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CBFD67-6493-4483-9A24-BDDA8024C177}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
@@ -17910,16 +14423,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
         <v>94</v>
@@ -17952,7 +14465,7 @@
         <v>70</v>
       </c>
       <c r="P1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="Q1" t="s">
         <v>97</v>
@@ -17993,7 +14506,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -18069,7 +14582,7 @@
         <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C3">
         <v>959</v>
@@ -18145,7 +14658,7 @@
         <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4">
         <v>747</v>
@@ -18223,7 +14736,7 @@
         <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4">
         <v>822</v>
@@ -18301,7 +14814,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4">
         <v>769</v>
@@ -18379,7 +14892,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C7">
         <v>1000</v>
@@ -18455,7 +14968,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8">
         <v>500</v>
@@ -18531,7 +15044,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C9">
         <v>500</v>
@@ -18607,7 +15120,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C10">
         <v>170</v>
@@ -18691,7 +15204,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -18766,7 +15279,7 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C12">
         <v>500</v>
@@ -18841,7 +15354,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -18916,7 +15429,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C14">
         <v>500</v>
@@ -18991,7 +15504,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C15">
         <v>500</v>
@@ -19066,7 +15579,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C16">
         <v>500</v>
@@ -19141,7 +15654,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C17">
         <v>500</v>
@@ -19216,7 +15729,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C18">
         <v>500</v>
@@ -19290,7 +15803,7 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -19314,7 +15827,7 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -19329,7 +15842,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C21">
         <v>500</v>
@@ -19403,7 +15916,7 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C22">
         <v>500</v>
@@ -19477,7 +15990,7 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="2"/>
@@ -19489,7 +16002,7 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="2"/>
@@ -19501,7 +16014,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N25" s="1">
         <f t="shared" si="2"/>
@@ -19513,7 +16026,7 @@
         <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.5">
@@ -19521,7 +16034,7 @@
         <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.5">
@@ -19529,7 +16042,7 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -19538,7 +16051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC35031-E7EF-460F-9964-662C8F6243AC}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
@@ -19664,16 +16177,16 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AH1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AI1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AJ1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.5">
@@ -21535,12 +18048,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F072C7-7250-44C2-8129-074BE7A60955}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
